--- a/generated_docs/WR_89856203_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/25/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89856203_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I64"/>
+  <dimension ref="A2:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15955</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,31 +1024,31 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,18 +1071,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,22 +1203,22 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,13 +1241,13 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
@@ -1275,13 +1275,13 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,18 +1377,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,17 +1407,17 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
@@ -1445,13 +1445,13 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
@@ -1479,13 +1479,13 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -1513,13 +1513,13 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
@@ -1547,18 +1547,18 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,18 +1581,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,22 +1611,22 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,18 +1649,18 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42W-GH</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Wire mt,Guy Hook</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,22 +1713,22 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,77 +1785,188 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H47" s="16" t="n">
-        <v>8948.43</v>
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D51" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F51" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G51" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H51" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1865,7 +1976,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1878,18 +1989,18 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -1899,7 +2010,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -1912,18 +2023,18 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -1933,7 +2044,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -1942,11 +2053,11 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1957,7 +2068,7 @@
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -1967,7 +2078,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -1980,18 +2091,18 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2001,7 +2112,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2014,18 +2125,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>GYF-38-D-42W-GH</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2035,7 +2146,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>GYF,3/8,Down,42in Wire mt,Guy Hook</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2048,18 +2159,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2069,7 +2180,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2082,18 +2193,18 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2103,31 +2214,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>470.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2137,7 +2248,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2146,22 +2257,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2171,7 +2282,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2180,22 +2291,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>376.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2205,7 +2316,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2214,17 +2325,17 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
@@ -2252,7 +2363,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2262,12 +2373,513 @@
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>7006.570000000001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G68" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H68" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H82" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A67:H67"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -2278,8 +2890,8 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A47:G47"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89856203_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89856203_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I82"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15955</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P146</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +927,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,22 +995,22 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,31 +1020,31 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,18 +1067,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,22 +1097,22 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,22 +1131,22 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,18 +1169,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,22 +1199,22 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,13 +1237,13 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
@@ -1275,13 +1271,13 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1339,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,18 +1373,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,17 +1403,17 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
@@ -1445,13 +1441,13 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
@@ -1479,13 +1475,13 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -1513,13 +1509,13 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
@@ -1547,18 +1543,18 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1564,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,18 +1577,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,22 +1607,22 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1636,7 +1632,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1649,18 +1645,18 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1670,7 +1666,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,22 +1675,22 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>858.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GYF-38-D-42W-GH</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GYF,3/8,Down,42in Wire mt,Guy Hook</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1713,22 +1709,22 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,22 +1743,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1768,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,188 +1781,77 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>0</v>
+      <c r="A47" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="n">
+        <v>8948.43</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>0</v>
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B51" s="12" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B</t>
-        </is>
-      </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
-        </is>
-      </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>0</v>
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
@@ -1976,7 +1861,7 @@
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1989,18 +1874,18 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -2010,7 +1895,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2023,18 +1908,18 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
@@ -2044,7 +1929,7 @@
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,11 +1938,11 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="55">
@@ -2068,7 +1953,7 @@
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +1963,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,18 +1976,18 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +1997,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,18 +2010,18 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42W-GH</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2031,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Wire mt,Guy Hook</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,18 +2044,18 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
@@ -2180,7 +2065,7 @@
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,18 +2078,18 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>GYW-38</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
@@ -2214,31 +2099,31 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2248,7 +2133,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,22 +2142,22 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
@@ -2282,7 +2167,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2176,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2201,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2325,17 +2210,17 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
@@ -2363,7 +2248,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="64">
@@ -2373,513 +2258,12 @@
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F68" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G68" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H68" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C77" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E77" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G77" s="10" t="inlineStr"/>
-      <c r="H77" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B78" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C78" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E78" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="13" t="inlineStr"/>
-      <c r="H78" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C79" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E79" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G79" s="10" t="inlineStr"/>
-      <c r="H79" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B80" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C80" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E80" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="inlineStr"/>
-      <c r="H80" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H82" s="16" t="n">
-        <v>0</v>
+        <v>7006.570000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -2890,8 +2274,8 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A82:G82"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A47:G47"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
